--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey Petrel_Gough.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey Petrel_Gough.xlsx
@@ -4275,13 +4275,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BEC85C-6E71-4AC7-9A27-F35B87706AAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D738A1-41A8-42FF-B117-DC2872420E7C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D247CBCA-F929-41D2-9BA4-BBEDBBBC8A85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B3C4672-9BCB-440F-8E2B-A041C4AC9588}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31FE7C4-7AA6-4DEB-9FD4-DC7BFC66AC6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E289C8CE-3E99-46F6-82AE-63F8B021E1AA}"/>
 </file>